--- a/results/pvalue_OFFSIDES_all_pathway_AUPR+AUROCperdrug.xlsx
+++ b/results/pvalue_OFFSIDES_all_pathway_AUPR+AUROCperdrug.xlsx
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>244.376</t>
+          <t>50.943</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>154.638</t>
+          <t>14.053</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>215.71</t>
+          <t>41.192</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>231.22</t>
+          <t>33.062</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-18.359</t>
+          <t>23.727</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
